--- a/samples/Cadify Control Sample/cadifymodel.xlsx
+++ b/samples/Cadify Control Sample/cadifymodel.xlsx
@@ -5,30 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadify\TempData\Raw\Cadify Control Sample-opened-2025-07-16 11-06-08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadify\TempData\Raw\Cadify Control Sample-opened-2025-07-22 11-59-36\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB12A659-5FCC-44C7-B527-D2D2128BD681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB45E08-0EC5-41BC-81E8-E3D80714C088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{E70D944D-1A27-4045-AF88-DA6CD3DEBDCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
     <sheet name="Cadify MASTER" sheetId="2" r:id="rId2"/>
-    <sheet name="Cadify BOM" sheetId="4" r:id="rId3"/>
-    <sheet name="Proxy" sheetId="3" r:id="rId4"/>
-    <sheet name="Lists" sheetId="5" r:id="rId5"/>
+    <sheet name="Sketcher" sheetId="6" r:id="rId3"/>
+    <sheet name="Cadify BOM" sheetId="4" r:id="rId4"/>
+    <sheet name="Proxy" sheetId="3" r:id="rId5"/>
+    <sheet name="Lists" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Air_Flow">'[1]BigLink Master'!$C$104</definedName>
     <definedName name="CADIFYSHEETID" localSheetId="0">"bb05dbe3-22d7-4ecf-8e60-4cf378b800c2"</definedName>
-    <definedName name="CADIFYSHEETID" localSheetId="2">"ffa506cd-e99c-4b6a-b843-4989ea7af5ac"</definedName>
+    <definedName name="CADIFYSHEETID" localSheetId="3">"ffa506cd-e99c-4b6a-b843-4989ea7af5ac"</definedName>
     <definedName name="CADIFYSHEETID" localSheetId="1">"db87de2f-cc9f-4b0a-9248-2f1e1dc59e15"</definedName>
-    <definedName name="CADIFYSHEETID" localSheetId="4">"c49283ec-7d46-49f9-906a-902b11225d12"</definedName>
-    <definedName name="CADIFYSHEETID" localSheetId="3">"4619253c-a55f-4ca7-a0ab-0d05818a9a27"</definedName>
+    <definedName name="CADIFYSHEETID" localSheetId="5">"c49283ec-7d46-49f9-906a-902b11225d12"</definedName>
+    <definedName name="CADIFYSHEETID" localSheetId="4">"4619253c-a55f-4ca7-a0ab-0d05818a9a27"</definedName>
+    <definedName name="CADIFYSHEETID" localSheetId="2">"acb01601-ee07-4a16-8ae9-78673e6d1170"</definedName>
     <definedName name="Drilled_Flanges_Nr1">'[1]BigLink Master'!$C$117</definedName>
     <definedName name="Drilled_flanges_Nr2">'[1]BigLink Master'!$C$122</definedName>
     <definedName name="Flange_1_Hole_Diameter">'[1]BigLink Master'!$C$118</definedName>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="438">
   <si>
     <t>ID</t>
   </si>
@@ -1226,11 +1228,203 @@
   <si>
     <t>How tall are you</t>
   </si>
+  <si>
+    <t>Source sheet tab</t>
+  </si>
+  <si>
+    <t>Print area</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Destination tab</t>
+  </si>
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Page size</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Number of pages</t>
+  </si>
+  <si>
+    <t>Product Reports</t>
+  </si>
+  <si>
+    <t>Cadify MASTER</t>
+  </si>
+  <si>
+    <t>A15:P45</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>4 Customer</t>
+  </si>
+  <si>
+    <t>Print Cadify MASTER</t>
+  </si>
+  <si>
+    <t>printFromTable.pdf</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Portrait</t>
+  </si>
+  <si>
+    <t>Brochure 1</t>
+  </si>
+  <si>
+    <t>Product Brochures</t>
+  </si>
+  <si>
+    <t>File format</t>
+  </si>
+  <si>
+    <t>Brochure name</t>
+  </si>
+  <si>
+    <t>Static Downloadable PDF</t>
+  </si>
+  <si>
+    <t>Controls - Cadify Light User Manual.pdf</t>
+  </si>
+  <si>
+    <t>3 Brochures</t>
+  </si>
+  <si>
+    <t>ENDOFBROCHURES</t>
+  </si>
+  <si>
+    <t>Image 4</t>
+  </si>
+  <si>
+    <t>Cadify logo NopC 250 x 85.jpg</t>
+  </si>
+  <si>
+    <t>productImage</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Named</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>gridlines</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Cadify</t>
+  </si>
+  <si>
+    <t>Sheet A</t>
+  </si>
+  <si>
+    <t>NoGrid</t>
+  </si>
+  <si>
+    <t>C3:L22</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Z-Order</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Line 1</t>
+  </si>
+  <si>
+    <t>LineThickRed</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>Lower Left</t>
+  </si>
+  <si>
+    <t>Upper Right</t>
+  </si>
+  <si>
+    <t>Corner</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Infill</t>
+  </si>
+  <si>
+    <t>R,G,B</t>
+  </si>
+  <si>
+    <t>Rect 1</t>
+  </si>
+  <si>
+    <t>LineThickBlue</t>
+  </si>
+  <si>
+    <t>SVG</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Sketcher</t>
+  </si>
+  <si>
+    <t>Disallow;160;No Show</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1378,7 +1572,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1467,6 +1661,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,7 +1833,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1792,6 +2004,22 @@
     <xf numFmtId="1" fontId="5" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Bad 2" xfId="10" xr:uid="{05D55623-5270-4BFA-919F-767B65F68EDF}"/>
@@ -1821,6 +2049,146 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>686</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F6B718-F3D0-9DEC-D936-2A73FF61CCCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1828876" y="571048"/>
+          <a:ext cx="4877410" cy="3429428"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>686</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rect 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F349111A-76FF-BE91-8526-C64A1CB7DB64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828876" y="571048"/>
+          <a:ext cx="4877410" cy="3429428"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5556"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="hu-HU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2858,7 +3226,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36759C74-4C7E-4193-8D31-F00CDA7C3ED6}">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R45" sqref="R45"/>
@@ -3558,6 +3926,232 @@
         <v>298</v>
       </c>
     </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="str">
+        <f>Sketcher!$I$28</f>
+        <v>&lt;svg viewbox="0 0 6419 4019" style="width:100%; height:100%;"&gt;&lt;defs&gt;&lt;marker id="arrowLeft" viewBox="0 0 10 10" refY="5" refX="0" markerHeight="10" markerWidth="10" orient="auto"&gt;&lt;path d="M 10 10 L 0 5 L 10 0 z"/&gt;&lt;/marker&gt;&lt;marker id="arrowRight" viewBox="0 0 10 10" refY="5" refX="10" markerHeight="10" markerWidth="10" orient="auto"&gt;&lt;path d="M 0 0 L 10 5 L 0 10 z"/&gt;&lt;/marker&gt;&lt;/defs&gt;
+&lt;rect id="rect0" x="19" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect1" x="659" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect2" x="1299" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect3" x="1939" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect4" x="2579" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect5" x="3219" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect6" x="3859" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect7" x="4499" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect8" x="5139" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect9" x="5779" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect10" x="19" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect11" x="659" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect12" x="1299" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect13" x="1939" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect14" x="2579" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect15" x="3219" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect16" x="3859" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect17" x="4499" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect18" x="5139" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect19" x="5779" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect20" x="19" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect21" x="659" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect22" x="1299" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect23" x="1939" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect24" x="2579" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect25" x="3219" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect26" x="3859" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect27" x="4499" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect28" x="5139" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect29" x="5779" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect30" x="19" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect31" x="659" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect32" x="1299" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect33" x="1939" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect34" x="2579" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect35" x="3219" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect36" x="3859" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect37" x="4499" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect38" x="5139" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect39" x="5779" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect40" x="19" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect41" x="659" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect42" x="1299" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect43" x="1939" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect44" x="2579" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect45" x="3219" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect46" x="3859" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect47" x="4499" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect48" x="5139" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect49" x="5779" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect50" x="19" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect51" x="659" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect52" x="1299" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect53" x="1939" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect54" x="2579" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect55" x="3219" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect56" x="3859" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect57" x="4499" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect58" x="5139" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect59" x="5779" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect60" x="19" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect61" x="659" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect62" x="1299" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect63" x="1939" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect64" x="2579" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect65" x="3219" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect66" x="3859" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect67" x="4499" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect68" x="5139" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect69" x="5779" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect70" x="19" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect71" x="659" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect72" x="1299" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect73" x="1939" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect74" x="2579" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect75" x="3219" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect76" x="3859" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect77" x="4499" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect78" x="5139" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect79" x="5779" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect80" x="19" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect81" x="659" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect82" x="1299" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect83" x="1939" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect84" x="2579" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect85" x="3219" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect86" x="3859" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect87" x="4499" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect88" x="5139" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect89" x="5779" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect90" x="19" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect91" x="659" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect92" x="1299" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect93" x="1939" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect94" x="2579" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect95" x="3219" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect96" x="3859" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect97" x="4499" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect98" x="5139" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect99" x="5779" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect100" x="19" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect101" x="659" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect102" x="1299" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect103" x="1939" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect104" x="2579" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect105" x="3219" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect106" x="3859" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect107" x="4499" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect108" x="5139" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect109" x="5779" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect110" x="19" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect111" x="659" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect112" x="1299" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect113" x="1939" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect114" x="2579" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect115" x="3219" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect116" x="3859" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect117" x="4499" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect118" x="5139" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect119" x="5779" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect120" x="19" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect121" x="659" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect122" x="1299" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect123" x="1939" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect124" x="2579" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect125" x="3219" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect126" x="3859" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect127" x="4499" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect128" x="5139" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect129" x="5779" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect130" x="19" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect131" x="659" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect132" x="1299" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect133" x="1939" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect134" x="2579" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect135" x="3219" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect136" x="3859" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect137" x="4499" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect138" x="5139" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect139" x="5779" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect140" x="19" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect141" x="659" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect142" x="1299" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect143" x="1939" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect144" x="2579" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect145" x="3219" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect146" x="3859" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect147" x="4499" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect148" x="5139" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect149" x="5779" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect150" x="19" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect151" x="659" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect152" x="1299" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect153" x="1939" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect154" x="2579" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect155" x="3219" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect156" x="3859" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect157" x="4499" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect158" x="5139" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect159" x="5779" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect160" x="19" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect161" x="659" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect162" x="1299" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect163" x="1939" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect164" x="2579" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect165" x="3219" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect166" x="3859" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect167" x="4499" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect168" x="5139" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect169" x="5779" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect170" x="19" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect171" x="659" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect172" x="1299" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect173" x="1939" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect174" x="2579" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect175" x="3219" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect176" x="3859" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect177" x="4499" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect178" x="5139" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect179" x="5779" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect180" x="19" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect181" x="659" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect182" x="1299" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect183" x="1939" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect184" x="2579" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect185" x="3219" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect186" x="3859" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect187" x="4499" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect188" x="5139" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect189" x="5779" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect190" x="19" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect191" x="659" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect192" x="1299" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect193" x="1939" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect194" x="2579" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect195" x="3219" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect196" x="3859" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect197" x="4499" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect198" x="5139" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect199" x="5779" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;line id="Line 1" x1="640" y1="3800" x2="5760" y2="200" style="stroke:#FF0000; stroke-width:30; "&gt;&lt;/line&gt;
+&lt;rect id="Rect 1" x="640" y="200" rx="200" ry="200" width="5120" height="3600" style="stroke:#0000FF; stroke-width:30; fill:transparent; "/&gt;
+&lt;/svg&gt;</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F30" s="22" t="str">
+        <f>Sketcher!$B$28</f>
+        <v>Sheet A</v>
+      </c>
+      <c r="G30" s="21" t="str">
+        <f>Sketcher!$J$28</f>
+        <v/>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A12:D12"/>
@@ -3570,6 +4164,855 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2810214-BCC2-41EF-AB5E-D1FF7D8E1292}">
+  <dimension ref="B3:M36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="76">
+        <v>105.83333333333333</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="76">
+        <v>100.54166666666667</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="76">
+        <v>95.25</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="76">
+        <v>89.958333333333329</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="76">
+        <v>84.666666666666671</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="76">
+        <v>79.375</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="76">
+        <v>74.083333333333329</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="76">
+        <v>68.791666666666671</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="76">
+        <v>63.5</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="76">
+        <v>58.208333333333329</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="76">
+        <v>52.916666666666664</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="76">
+        <v>47.625</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="76">
+        <v>42.333333333333336</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="76">
+        <v>37.041666666666664</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="76">
+        <v>31.75</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="76">
+        <v>26.458333333333332</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="76">
+        <v>21.166666666666668</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="76">
+        <v>15.875</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="76">
+        <v>10.583333333333334</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="76">
+        <v>5.291666666666667</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="76">
+        <v>16.93333333333333</v>
+      </c>
+      <c r="D23" s="76">
+        <v>33.86666666666666</v>
+      </c>
+      <c r="E23" s="76">
+        <v>50.8</v>
+      </c>
+      <c r="F23" s="76">
+        <v>67.73333333333332</v>
+      </c>
+      <c r="G23" s="76">
+        <v>84.666666666666671</v>
+      </c>
+      <c r="H23" s="76">
+        <v>101.6</v>
+      </c>
+      <c r="I23" s="76">
+        <v>118.53333333333333</v>
+      </c>
+      <c r="J23" s="76">
+        <v>135.46666666666664</v>
+      </c>
+      <c r="K23" s="76">
+        <v>152.39999999999998</v>
+      </c>
+      <c r="L23" s="76">
+        <v>169.33333333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="M26" s="79" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79" t="s">
+        <v>434</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>435</v>
+      </c>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="M27" s="79" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" s="78">
+        <v>169.33333333333334</v>
+      </c>
+      <c r="D28" s="78">
+        <v>105.83333333333333</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="I28" t="str">
+        <f>_xll.CadifySvg(Sketcher!$M$28,$M$32,$M$36,,,,,,,,)</f>
+        <v>&lt;svg viewbox="0 0 6419 4019" style="width:100%; height:100%;"&gt;&lt;defs&gt;&lt;marker id="arrowLeft" viewBox="0 0 10 10" refY="5" refX="0" markerHeight="10" markerWidth="10" orient="auto"&gt;&lt;path d="M 10 10 L 0 5 L 10 0 z"/&gt;&lt;/marker&gt;&lt;marker id="arrowRight" viewBox="0 0 10 10" refY="5" refX="10" markerHeight="10" markerWidth="10" orient="auto"&gt;&lt;path d="M 0 0 L 10 5 L 0 10 z"/&gt;&lt;/marker&gt;&lt;/defs&gt;
+&lt;rect id="rect0" x="19" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect1" x="659" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect2" x="1299" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect3" x="1939" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect4" x="2579" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect5" x="3219" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect6" x="3859" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect7" x="4499" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect8" x="5139" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect9" x="5779" y="19" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect10" x="19" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect11" x="659" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect12" x="1299" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect13" x="1939" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect14" x="2579" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect15" x="3219" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect16" x="3859" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect17" x="4499" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect18" x="5139" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect19" x="5779" y="219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect20" x="19" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect21" x="659" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect22" x="1299" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect23" x="1939" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect24" x="2579" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect25" x="3219" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect26" x="3859" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect27" x="4499" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect28" x="5139" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect29" x="5779" y="419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect30" x="19" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect31" x="659" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect32" x="1299" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect33" x="1939" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect34" x="2579" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect35" x="3219" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect36" x="3859" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect37" x="4499" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect38" x="5139" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect39" x="5779" y="619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect40" x="19" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect41" x="659" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect42" x="1299" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect43" x="1939" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect44" x="2579" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect45" x="3219" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect46" x="3859" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect47" x="4499" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect48" x="5139" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect49" x="5779" y="819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect50" x="19" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect51" x="659" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect52" x="1299" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect53" x="1939" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect54" x="2579" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect55" x="3219" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect56" x="3859" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect57" x="4499" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect58" x="5139" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect59" x="5779" y="1019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect60" x="19" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect61" x="659" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect62" x="1299" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect63" x="1939" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect64" x="2579" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect65" x="3219" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect66" x="3859" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect67" x="4499" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect68" x="5139" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect69" x="5779" y="1219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect70" x="19" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect71" x="659" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect72" x="1299" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect73" x="1939" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect74" x="2579" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect75" x="3219" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect76" x="3859" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect77" x="4499" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect78" x="5139" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect79" x="5779" y="1419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect80" x="19" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect81" x="659" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect82" x="1299" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect83" x="1939" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect84" x="2579" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect85" x="3219" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect86" x="3859" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect87" x="4499" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect88" x="5139" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect89" x="5779" y="1619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect90" x="19" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect91" x="659" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect92" x="1299" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect93" x="1939" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect94" x="2579" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect95" x="3219" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect96" x="3859" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect97" x="4499" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect98" x="5139" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect99" x="5779" y="1819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect100" x="19" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect101" x="659" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect102" x="1299" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect103" x="1939" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect104" x="2579" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect105" x="3219" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect106" x="3859" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect107" x="4499" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect108" x="5139" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect109" x="5779" y="2019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect110" x="19" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect111" x="659" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect112" x="1299" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect113" x="1939" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect114" x="2579" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect115" x="3219" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect116" x="3859" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect117" x="4499" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect118" x="5139" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect119" x="5779" y="2219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect120" x="19" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect121" x="659" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect122" x="1299" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect123" x="1939" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect124" x="2579" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect125" x="3219" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect126" x="3859" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect127" x="4499" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect128" x="5139" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect129" x="5779" y="2419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect130" x="19" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect131" x="659" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect132" x="1299" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect133" x="1939" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect134" x="2579" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect135" x="3219" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect136" x="3859" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect137" x="4499" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect138" x="5139" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect139" x="5779" y="2619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect140" x="19" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect141" x="659" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect142" x="1299" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect143" x="1939" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect144" x="2579" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect145" x="3219" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect146" x="3859" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect147" x="4499" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect148" x="5139" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect149" x="5779" y="2819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect150" x="19" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect151" x="659" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect152" x="1299" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect153" x="1939" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect154" x="2579" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect155" x="3219" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect156" x="3859" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect157" x="4499" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect158" x="5139" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect159" x="5779" y="3019" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect160" x="19" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect161" x="659" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect162" x="1299" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect163" x="1939" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect164" x="2579" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect165" x="3219" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect166" x="3859" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect167" x="4499" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect168" x="5139" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect169" x="5779" y="3219" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect170" x="19" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect171" x="659" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect172" x="1299" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect173" x="1939" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect174" x="2579" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect175" x="3219" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect176" x="3859" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect177" x="4499" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect178" x="5139" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect179" x="5779" y="3419" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect180" x="19" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect181" x="659" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect182" x="1299" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect183" x="1939" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect184" x="2579" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect185" x="3219" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect186" x="3859" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect187" x="4499" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect188" x="5139" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect189" x="5779" y="3619" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect190" x="19" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect191" x="659" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect192" x="1299" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect193" x="1939" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect194" x="2579" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect195" x="3219" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect196" x="3859" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect197" x="4499" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect198" x="5139" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;rect id="rect199" x="5779" y="3819" width="621" height="181" style="fill:#FFFFFF"/&gt;
+&lt;line id="Line 1" x1="640" y1="3800" x2="5760" y2="200" style="stroke:#FF0000; stroke-width:30; "&gt;&lt;/line&gt;
+&lt;rect id="Rect 1" x="640" y="200" rx="200" ry="200" width="5120" height="3600" style="stroke:#0000FF; stroke-width:30; fill:transparent; "/&gt;
+&lt;/svg&gt;</v>
+      </c>
+      <c r="J28" t="str">
+        <f>_xll.CadifyJson(I28)</f>
+        <v/>
+      </c>
+      <c r="L28" t="s">
+        <v>414</v>
+      </c>
+      <c r="M28" s="42" t="str">
+        <f>_xll.CadifySheet(B28,E28,G28,L28)</f>
+        <v>CadifySheet</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="80" t="s">
+        <v>405</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="E30" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80" t="s">
+        <v>415</v>
+      </c>
+      <c r="L30" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="M30" s="80" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="80" t="s">
+        <v>415</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>418</v>
+      </c>
+      <c r="E31" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>418</v>
+      </c>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80" t="s">
+        <v>422</v>
+      </c>
+      <c r="L31" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="80" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" s="78">
+        <v>16.93333333333333</v>
+      </c>
+      <c r="D32" s="78">
+        <v>5.291666666666667</v>
+      </c>
+      <c r="E32" s="78">
+        <v>152.4</v>
+      </c>
+      <c r="F32" s="78">
+        <v>100.54166666666666</v>
+      </c>
+      <c r="I32" s="43">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>424</v>
+      </c>
+      <c r="L32" t="s">
+        <v>412</v>
+      </c>
+      <c r="M32" s="42" t="str">
+        <f>_xll.CadifyLine(B32,C32,D32,E32,F32,K32,L32,I32)</f>
+        <v>CadifyLine</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>426</v>
+      </c>
+      <c r="D34" s="81" t="s">
+        <v>426</v>
+      </c>
+      <c r="E34" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="F34" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="G34" s="81" t="s">
+        <v>428</v>
+      </c>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81" t="s">
+        <v>420</v>
+      </c>
+      <c r="J34" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="K34" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="L34" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="M34" s="81" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>417</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>418</v>
+      </c>
+      <c r="E35" s="81" t="s">
+        <v>417</v>
+      </c>
+      <c r="F35" s="81" t="s">
+        <v>418</v>
+      </c>
+      <c r="G35" s="81" t="s">
+        <v>429</v>
+      </c>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="J35" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="K35" s="81" t="s">
+        <v>422</v>
+      </c>
+      <c r="L35" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" s="81" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="78">
+        <v>16.93333333333333</v>
+      </c>
+      <c r="D36" s="78">
+        <v>5.291666666666667</v>
+      </c>
+      <c r="E36" s="78">
+        <v>152.4</v>
+      </c>
+      <c r="F36" s="78">
+        <v>100.54166666666666</v>
+      </c>
+      <c r="G36" s="78">
+        <v>5.291666666666667</v>
+      </c>
+      <c r="I36" s="43">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s">
+        <v>433</v>
+      </c>
+      <c r="L36" t="s">
+        <v>412</v>
+      </c>
+      <c r="M36" s="42" t="str">
+        <f>_xll.CadifyRectangle(B36,C36,D36,E36,F36,G36,J36,K36,L36,I36)</f>
+        <v>CadifyRectangle</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28" xr:uid="{FEE6CC9E-B352-42D8-BABA-81A8770D86EF}">
+      <formula1>"mm,none"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28" xr:uid="{4124DF76-F29F-4643-9A1C-53EFE0030105}">
+      <formula1>"Grid,NoGrid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K32 K36" xr:uid="{142A92DF-4230-4C58-92E3-92A7B81C576A}">
+      <formula1>"NoLine,LineContour,LineHidden,LineThin,LineCenter,DimLeft,DimRight,DimArrow,LineThickRed,LineThickBlue,Supress,LineFat60White,HandleOrange,HandleGreen"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741906C4-E1D6-4115-A787-A4CC83E76F2D}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
@@ -3913,152 +5356,315 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0730AA8-FCAD-4ABB-991A-D4069FAAFAFA}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K2" sqref="A2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C14" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D14" s="65" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E14" s="65" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>356</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F15" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>357</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B16" t="s">
         <v>365</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C16" t="s">
         <v>365</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D16" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>358</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17" t="s">
         <v>366</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C17" t="s">
         <v>369</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D17" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>359</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
         <v>367</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C18" t="s">
         <v>370</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D18" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>360</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B19" t="s">
         <v>367</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C19" t="s">
         <v>370</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D19" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>361</v>
       </c>
-      <c r="B8">
+      <c r="B20">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C20">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D20">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>362</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B21" t="s">
         <v>350</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C21" t="s">
         <v>350</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D21" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>363</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B22" t="s">
         <v>305</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C22" t="s">
         <v>306</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>364</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B23" t="s">
         <v>368</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C23" t="s">
         <v>368</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D23" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4068,7 +5674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17B62F2-BF6D-415C-ACC1-8DE6AC8FB525}">
   <dimension ref="A1:C128"/>
   <sheetViews>
